--- a/df_list_20250131.xlsx
+++ b/df_list_20250131.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="175">
   <si>
     <t>SITE_NO</t>
   </si>
@@ -274,16 +274,284 @@
   </si>
   <si>
     <t>제안서 평가위원 후보자 모집 공고[합천 국가지질공원 타당성・기초학술조사 및 인증신청 학술용역]</t>
+  </si>
+  <si>
+    <t>「신천처리구역(중동교～냉천교)오수간선관로 설치공사 흙막이 가시설 공법」선정 관련 서면질의 답변 공고</t>
+  </si>
+  <si>
+    <t>대구광역시 사회복지시설 기능보강사업 심의위원회 위원 공개모집 공고</t>
+  </si>
+  <si>
+    <t>A110</t>
+  </si>
+  <si>
+    <t>충청도_당진시</t>
+  </si>
+  <si>
+    <t>https://eminwon.dangjin.go.kr/emwp/jsp/ofr/OfrNotAncmtL.jsp?not_ancmt_se_code=01,02,03,04,05,06&amp;list_gubun=A</t>
+  </si>
+  <si>
+    <t>「2025 당진 삽교호 드론 라이트 쇼」운영 용역 제안서평가위원(후보자)...</t>
+  </si>
+  <si>
+    <t>A018</t>
+  </si>
+  <si>
+    <t>부산광역시고시공고</t>
+  </si>
+  <si>
+    <t>https://www.busan.go.kr/nbgosi?curPage=1</t>
+  </si>
+  <si>
+    <t>『2025 세계도핑방지기구 총회 및 부대행사 대행 용역』제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>노후하수관로 정비사업(2차 2단계) 하수관로 비굴착 보수 등 공법제안서 제출 관련 서면질의 답변 공고</t>
+  </si>
+  <si>
+    <t>A025</t>
+  </si>
+  <si>
+    <t>경기고시공고</t>
+  </si>
+  <si>
+    <t>https://www.gg.go.kr/bbs/board.do?bsIdx=469&amp;menuId=1547#page=1</t>
+  </si>
+  <si>
+    <t>2025년 리더십 코칭 운영용역 제안서 평가위원(후보자) 공개모집</t>
+  </si>
+  <si>
+    <t>https://www.gg.go.kr/bbs/board.do?bsIdx=469&amp;menuId=1547#page=2</t>
+  </si>
+  <si>
+    <t>2025년 경기도 초등학생 동물복지교육 제안서 평가위원 후보자 모집 안내</t>
+  </si>
+  <si>
+    <t>제안서 평가위원(후보자) 모집 공고(2025년 중요 종이기록물 정리 및 DB구축 사업)</t>
+  </si>
+  <si>
+    <t>A055</t>
+  </si>
+  <si>
+    <t>경기도_시흥시</t>
+  </si>
+  <si>
+    <t>https://www.siheung.go.kr/main/saeol/gosi/list.do?mId=0401040100</t>
+  </si>
+  <si>
+    <t>『장곡동 주차타워 건립사업』공법선정위원회 평가위원 명단 및 결과 공고</t>
+  </si>
+  <si>
+    <t>A063</t>
+  </si>
+  <si>
+    <t>경기도_오산시</t>
+  </si>
+  <si>
+    <t>https://www.osan.go.kr/portal/saeol/gosi/list.do?mId=0302010000</t>
+  </si>
+  <si>
+    <t>오산시 아동복지심의위원회 위원 모집 재공고</t>
+  </si>
+  <si>
+    <t>A064</t>
+  </si>
+  <si>
+    <t>경기도_의왕시</t>
+  </si>
+  <si>
+    <t>https://eminwon.uiwang.go.kr/emwp/jsp/ofr/OfrNotAncmtL.jsp?not_ancmt_se_code=01,04,06&amp;homepage_pbs_yn=Y&amp;subCheck=Y&amp;ofr_pageSize=10&amp;jndinm=OfrNotAncmtEJB&amp;context=NTIS&amp;list_gubun=A&amp;epcCheck=''</t>
+  </si>
+  <si>
+    <t>「의왕시 매장유산 유존지역 정보 고도화 용역」제안서 평가위원(후보자) 모...</t>
+  </si>
+  <si>
+    <t>A068</t>
+  </si>
+  <si>
+    <t>경기도_평택시</t>
+  </si>
+  <si>
+    <t>https://www.pyeongtaek.go.kr/pyeongtaek/saeol/gosiList.do?seCode=01&amp;mId=0401020000</t>
+  </si>
+  <si>
+    <t>2025년 제2회 건축전문위원회(구조안전) 심의 결과 공고</t>
+  </si>
+  <si>
+    <t>2025년 제1회 건축전문위원회(구조안전) 심의 결과 공고</t>
+  </si>
+  <si>
+    <t>A069</t>
+  </si>
+  <si>
+    <t>경기도_포천시</t>
+  </si>
+  <si>
+    <t>https://www.pocheon.go.kr/www/selectEminwonList.do?key=12563&amp;notAncmtSeCode=01&amp;pageUnit=90</t>
+  </si>
+  <si>
+    <t>포천시 공고 제2025-256호2025년 포천시 제1회 건축경관공동위원회 심의 주요 결과 공고</t>
+  </si>
+  <si>
+    <t>A074</t>
+  </si>
+  <si>
+    <t>경기도_연천군</t>
+  </si>
+  <si>
+    <t>https://www.yeoncheon.go.kr/www/selectGosiList.do?key=3393&amp;not_ancmt_se_code=01&amp;pageUnit=50</t>
+  </si>
+  <si>
+    <t>2025년 연천군 산림교육(숲해설 및 유아숲교육) 위탁운영 제안서 평가위원 공개모집 공고</t>
+  </si>
+  <si>
+    <t>https://www.cwg.go.kr/www/selectBbsNttList.do?bbsNo=25&amp;key=1226&amp;pageIndex=2</t>
+  </si>
+  <si>
+    <t>A093</t>
+  </si>
+  <si>
+    <t>충청도_제천시</t>
+  </si>
+  <si>
+    <t>https://www.jecheon.go.kr/www/selectBbsNttList.do?bbsNo=18&amp;key=5233&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>능강3지구 급경사지 붕괴위험지역 정비사업 신기술,특허(자재) 제안서 제출안내 공고 관련 질의사항 회신 공고새글</t>
+  </si>
+  <si>
+    <t>「솔밭공원 유아숲체험원 교육 운영 용역」입찰 및 제안서 제출안내 공고</t>
+  </si>
+  <si>
+    <t>https://www.cheongju.go.kr/www/selectEminwonNoticeList.do?key=23366&amp;notAncmtSeCd=&amp;searchCnd=all&amp;searchKrwd=&amp;pageIndex=5</t>
+  </si>
+  <si>
+    <t>A114</t>
+  </si>
+  <si>
+    <t>충청도_천안시</t>
+  </si>
+  <si>
+    <t>https://eminwon.cheonan.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04,05&amp;epcCheck=Y&amp;recent_mm=60</t>
+  </si>
+  <si>
+    <t>2025년 어린이날기념 천안어린이행복주간 행사 대행용역 제안서 평가위원회...</t>
+  </si>
+  <si>
+    <t>A122</t>
+  </si>
+  <si>
+    <t>전라도_군산시</t>
+  </si>
+  <si>
+    <t>https://eminwon.gunsan.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04,05</t>
+  </si>
+  <si>
+    <t>「2025년 군산시 BSC 직무성과평가 용역」제안서평가위원(후보자) 모집...</t>
+  </si>
+  <si>
+    <t>A129</t>
+  </si>
+  <si>
+    <t>전라도_무주군</t>
+  </si>
+  <si>
+    <t>https://eminwon.muju.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04&amp;subCheck=Y</t>
+  </si>
+  <si>
+    <t>무주군 지방생활보장 소위원회(긴급지원 적정성 심의 등 결정) 개최 결과 ...</t>
+  </si>
+  <si>
+    <t>순천시 외국인근로자 실태조사 및 정책수립 연구용역 제안서 평가위원(후보자...</t>
+  </si>
+  <si>
+    <t>무안군 온라인 쇼핑몰 「맛뜰무안몰」위탁운영 용역'  제안서 평가위원(후...</t>
+  </si>
+  <si>
+    <t>A159</t>
+  </si>
+  <si>
+    <t>경상도_경주시</t>
+  </si>
+  <si>
+    <t>https://www.gyeongju.go.kr/open_content/ko/page.do?mnu_uid=423&amp;pageNo=1</t>
+  </si>
+  <si>
+    <t>제안서 평가위원(후보자) 모집 공고(경주시 자율주행 신호정보 제공시스템)</t>
+  </si>
+  <si>
+    <t>A163</t>
+  </si>
+  <si>
+    <t>경상도_상주시</t>
+  </si>
+  <si>
+    <t>https://www.sangju.go.kr/gosi/list.tc?mn=3016&amp;pageSeq=2686&amp;mgtNo=17409&amp;recordCountPerPage=90</t>
+  </si>
+  <si>
+    <t>2025년도 상주시 농업산학협동심의 위원 모집 공고</t>
+  </si>
+  <si>
+    <t>A176</t>
+  </si>
+  <si>
+    <t>경상도_의성군</t>
+  </si>
+  <si>
+    <t>https://www.usc.go.kr/ko/page.do?mnu_uid=157&amp;pageNo=1</t>
+  </si>
+  <si>
+    <t>「안계정수장 급속응집침전지 설치공사」신기술 ・  특허공...</t>
+  </si>
+  <si>
+    <t>A187</t>
+  </si>
+  <si>
+    <t>경상도_김해시</t>
+  </si>
+  <si>
+    <t>https://www.gimhae.go.kr/03360/00023/00029.web?&amp;cpage=1</t>
+  </si>
+  <si>
+    <t>2025년 제1차 김해시 노선입찰형 한정면허 시내버스(읍면버스) 운송사업자 제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>https://www.miryang.go.kr/web/eMinwonList.do?mnNo=20903000000&amp;pageIndex=2</t>
+  </si>
+  <si>
+    <t>A192</t>
+  </si>
+  <si>
+    <t>경상도_통영시</t>
+  </si>
+  <si>
+    <t>https://www.tongyeong.go.kr/00852/00853/00858.web?&amp;cpage=1</t>
+  </si>
+  <si>
+    <t>통영시 매장유산 유존지역 정보 고도화 사업 제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>A208</t>
+  </si>
+  <si>
+    <t>경상도_고성군</t>
+  </si>
+  <si>
+    <t>https://www.goseong.go.kr/board/list.goseong?boardId=BBS_0000015&amp;menuCd=DOM_000000103001014000&amp;contentsSid=29&amp;cpath=&amp;startPage=1</t>
+  </si>
+  <si>
+    <t>『2025년 산림교육(숲해설・유아숲) 위탁운영사업』 제안서 평가위원(후보자) 모집 공고</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -305,6 +573,10 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="2">
@@ -335,7 +607,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -345,6 +617,18 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1049,54 +1333,966 @@
         <v>45688.55189814815</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="7">
+        <v>45688.0</v>
+      </c>
+      <c r="F25" s="7">
+        <v>45689.042708333334</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="7">
+        <v>45688.0</v>
+      </c>
+      <c r="F26" s="7">
+        <v>45689.042708333334</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="7">
+        <v>45688.0</v>
+      </c>
+      <c r="F27" s="7">
+        <v>45689.042708333334</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="7">
+        <v>45688.0</v>
+      </c>
+      <c r="F28" s="7">
+        <v>45689.042708333334</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="7">
+        <v>45688.0</v>
+      </c>
+      <c r="F29" s="7">
+        <v>45689.042708333334</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="7">
+        <v>45688.0</v>
+      </c>
+      <c r="F30" s="7">
+        <v>45689.042708333334</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" s="7">
+        <v>45688.0</v>
+      </c>
+      <c r="F31" s="7">
+        <v>45689.042708333334</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="7">
+        <v>45688.0</v>
+      </c>
+      <c r="F32" s="7">
+        <v>45689.042708333334</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="7">
+        <v>45688.0</v>
+      </c>
+      <c r="F33" s="7">
+        <v>45689.042708333334</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="7">
+        <v>45688.0</v>
+      </c>
+      <c r="F34" s="7">
+        <v>45689.042708333334</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="7">
+        <v>45688.0</v>
+      </c>
+      <c r="F35" s="7">
+        <v>45689.042708333334</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" s="7">
+        <v>45688.0</v>
+      </c>
+      <c r="F36" s="7">
+        <v>45689.042708333334</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" s="7">
+        <v>45688.0</v>
+      </c>
+      <c r="F37" s="7">
+        <v>45689.042708333334</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="7">
+        <v>45688.0</v>
+      </c>
+      <c r="F38" s="7">
+        <v>45689.042708333334</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="7">
+        <v>45688.0</v>
+      </c>
+      <c r="F39" s="7">
+        <v>45689.042708333334</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" s="7">
+        <v>45688.0</v>
+      </c>
+      <c r="F40" s="7">
+        <v>45689.042708333334</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41" s="7">
+        <v>45688.0</v>
+      </c>
+      <c r="F41" s="7">
+        <v>45689.042708333334</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="7">
+        <v>45688.0</v>
+      </c>
+      <c r="F42" s="7">
+        <v>45689.042708333334</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E43" s="7">
+        <v>45688.0</v>
+      </c>
+      <c r="F43" s="7">
+        <v>45689.042708333334</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E44" s="7">
+        <v>45688.0</v>
+      </c>
+      <c r="F44" s="7">
+        <v>45689.042708333334</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E45" s="7">
+        <v>45688.0</v>
+      </c>
+      <c r="F45" s="7">
+        <v>45689.042708333334</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" s="7">
+        <v>45688.0</v>
+      </c>
+      <c r="F46" s="7">
+        <v>45689.042708333334</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E47" s="7">
+        <v>45688.0</v>
+      </c>
+      <c r="F47" s="7">
+        <v>45689.042708333334</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48" s="7">
+        <v>45688.0</v>
+      </c>
+      <c r="F48" s="7">
+        <v>45689.042708333334</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49" s="7">
+        <v>45688.0</v>
+      </c>
+      <c r="F49" s="7">
+        <v>45689.042708333334</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="7">
+        <v>45688.0</v>
+      </c>
+      <c r="F50" s="7">
+        <v>45689.042708333334</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E51" s="7">
+        <v>45688.0</v>
+      </c>
+      <c r="F51" s="7">
+        <v>45689.042708333334</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E52" s="7">
+        <v>45688.0</v>
+      </c>
+      <c r="F52" s="7">
+        <v>45689.042708333334</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53" s="7">
+        <v>45688.0</v>
+      </c>
+      <c r="F53" s="7">
+        <v>45689.042708333334</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54" s="7">
+        <v>45688.0</v>
+      </c>
+      <c r="F54" s="7">
+        <v>45689.042708333334</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E55" s="7">
+        <v>45688.0</v>
+      </c>
+      <c r="F55" s="7">
+        <v>45689.042708333334</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E56" s="7">
+        <v>45688.0</v>
+      </c>
+      <c r="F56" s="7">
+        <v>45689.042708333334</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E57" s="7">
+        <v>45688.0</v>
+      </c>
+      <c r="F57" s="7">
+        <v>45689.042708333334</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E58" s="7">
+        <v>45688.0</v>
+      </c>
+      <c r="F58" s="7">
+        <v>45689.042708333334</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E59" s="7">
+        <v>45688.0</v>
+      </c>
+      <c r="F59" s="7">
+        <v>45689.042708333334</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E60" s="7">
+        <v>45688.0</v>
+      </c>
+      <c r="F60" s="7">
+        <v>45689.042708333334</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E61" s="7">
+        <v>45688.0</v>
+      </c>
+      <c r="F61" s="7">
+        <v>45689.042708333334</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E62" s="7">
+        <v>45688.0</v>
+      </c>
+      <c r="F62" s="7">
+        <v>45689.042708333334</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E63" s="7">
+        <v>45688.0</v>
+      </c>
+      <c r="F63" s="7">
+        <v>45689.042708333334</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E64" s="7">
+        <v>45688.0</v>
+      </c>
+      <c r="F64" s="7">
+        <v>45689.042708333334</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E65" s="7">
+        <v>45688.0</v>
+      </c>
+      <c r="F65" s="7">
+        <v>45689.042708333334</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E66" s="7">
+        <v>45688.0</v>
+      </c>
+      <c r="F66" s="7">
+        <v>45689.042708333334</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E67" s="7">
+        <v>45688.0</v>
+      </c>
+      <c r="F67" s="7">
+        <v>45689.042708333334</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E68" s="7">
+        <v>45688.0</v>
+      </c>
+      <c r="F68" s="7">
+        <v>45689.042708333334</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E69" s="7">
+        <v>45688.0</v>
+      </c>
+      <c r="F69" s="7">
+        <v>45689.042708333334</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E70" s="7">
+        <v>45688.0</v>
+      </c>
+      <c r="F70" s="7">
+        <v>45689.042708333334</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E71" s="7">
+        <v>45688.0</v>
+      </c>
+      <c r="F71" s="7">
+        <v>45689.042708333334</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E72" s="7">
+        <v>45688.0</v>
+      </c>
+      <c r="F72" s="7">
+        <v>45689.042708333334</v>
+      </c>
+    </row>
     <row r="73" ht="15.75" customHeight="1"/>
     <row r="74" ht="15.75" customHeight="1"/>
     <row r="75" ht="15.75" customHeight="1"/>
@@ -2026,9 +3222,59 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C25"/>
+    <hyperlink r:id="rId2" ref="C26"/>
+    <hyperlink r:id="rId3" ref="C27"/>
+    <hyperlink r:id="rId4" ref="C28"/>
+    <hyperlink r:id="rId5" ref="C29"/>
+    <hyperlink r:id="rId6" ref="C30"/>
+    <hyperlink r:id="rId7" ref="C31"/>
+    <hyperlink r:id="rId8" ref="C32"/>
+    <hyperlink r:id="rId9" ref="C33"/>
+    <hyperlink r:id="rId10" ref="C34"/>
+    <hyperlink r:id="rId11" location="page=1" ref="C35"/>
+    <hyperlink r:id="rId12" location="page=2" ref="C36"/>
+    <hyperlink r:id="rId13" location="page=2" ref="C37"/>
+    <hyperlink r:id="rId14" ref="C38"/>
+    <hyperlink r:id="rId15" ref="C39"/>
+    <hyperlink r:id="rId16" ref="C40"/>
+    <hyperlink r:id="rId17" ref="C41"/>
+    <hyperlink r:id="rId18" ref="C42"/>
+    <hyperlink r:id="rId19" ref="C43"/>
+    <hyperlink r:id="rId20" ref="C44"/>
+    <hyperlink r:id="rId21" ref="C45"/>
+    <hyperlink r:id="rId22" ref="C46"/>
+    <hyperlink r:id="rId23" ref="C47"/>
+    <hyperlink r:id="rId24" ref="C48"/>
+    <hyperlink r:id="rId25" ref="C49"/>
+    <hyperlink r:id="rId26" ref="C50"/>
+    <hyperlink r:id="rId27" ref="C51"/>
+    <hyperlink r:id="rId28" ref="C52"/>
+    <hyperlink r:id="rId29" ref="C53"/>
+    <hyperlink r:id="rId30" ref="C54"/>
+    <hyperlink r:id="rId31" ref="C55"/>
+    <hyperlink r:id="rId32" ref="C56"/>
+    <hyperlink r:id="rId33" ref="C57"/>
+    <hyperlink r:id="rId34" ref="C58"/>
+    <hyperlink r:id="rId35" ref="C59"/>
+    <hyperlink r:id="rId36" ref="C60"/>
+    <hyperlink r:id="rId37" ref="C61"/>
+    <hyperlink r:id="rId38" ref="C62"/>
+    <hyperlink r:id="rId39" ref="C63"/>
+    <hyperlink r:id="rId40" ref="C64"/>
+    <hyperlink r:id="rId41" ref="C65"/>
+    <hyperlink r:id="rId42" ref="C66"/>
+    <hyperlink r:id="rId43" ref="C67"/>
+    <hyperlink r:id="rId44" ref="C68"/>
+    <hyperlink r:id="rId45" ref="C69"/>
+    <hyperlink r:id="rId46" ref="C70"/>
+    <hyperlink r:id="rId47" ref="C71"/>
+    <hyperlink r:id="rId48" ref="C72"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId49"/>
 </worksheet>
 </file>